--- a/設計書/Shino/プロジェクト型演習_成果物(登録).xlsx
+++ b/設計書/Shino/プロジェクト型演習_成果物(登録).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\設計書\Shino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B250163-20D5-418B-848A-CD385084A46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE73F6C3-8B38-4D21-A640-1934FE678F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -695,73 +695,77 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>※1.期限とメモ以外の項目で空欄がある場合、エラーとして『このフィールドは入力必須です』と表示し、開発者ツールを利用して空白がある状態で登録した場合、登録失敗画面に遷移する
+    <t>※1.期限とメモ以外の項目で空欄がある場合、開発者ツールを利用して空白がある状態で登録した場合、登録失敗画面に遷移する
 ※1.期限が過去の日付で指定された場合、エラーとして『有効な期限を入力してください』と表示する</t>
-    <rPh sb="37" eb="39">
-      <t>ニュウリョク</t>
+    <rPh sb="22" eb="25">
+      <t>カイハツシャ</t>
     </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒッス</t>
+    <rPh sb="29" eb="31">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>トウロク</t>
     </rPh>
     <rPh sb="45" eb="47">
-      <t>ヒョウジ</t>
+      <t>バアイ</t>
     </rPh>
-    <rPh sb="49" eb="52">
-      <t>カイハツシャ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
+    <rPh sb="48" eb="50">
       <t>トウロク</t>
     </rPh>
+    <rPh sb="50" eb="52">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヒヅケ</t>
+    </rPh>
     <rPh sb="72" eb="74">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="75" eb="77">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>センイ</t>
+    <rPh sb="87" eb="89">
+      <t>ユウコウ</t>
     </rPh>
     <rPh sb="90" eb="92">
       <t>キゲン</t>
     </rPh>
     <rPh sb="93" eb="95">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="120" eb="122">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="130" eb="132">
+    <rPh sb="103" eb="105">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>未入力が存在する状態で登録ボタンを押した場合、エラーとして『このフィールドは入力必須です』と表示する</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -1562,7 +1566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1668,119 +1672,119 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1794,6 +1798,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1809,9 +1849,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1863,9 +1927,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1875,12 +1936,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1890,56 +1945,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6520,7 +6530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -6532,19 +6542,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="67" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="67" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
@@ -6556,70 +6566,70 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="49"/>
+      <c r="A2" s="60"/>
       <c r="B2" s="30"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="72">
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="43">
         <v>45631</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="64"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="49"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="65"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="66"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="38" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="51" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="52" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="27"/>
@@ -6627,15 +6637,15 @@
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
-      <c r="J6" s="42"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="51" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="52" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="27"/>
@@ -6643,15 +6653,15 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="42"/>
+      <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="51" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="52" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27"/>
@@ -6659,17 +6669,17 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="42"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="28"/>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="72" t="s">
         <v>61</v>
       </c>
       <c r="E9" s="27"/>
@@ -6677,29 +6687,31 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="42"/>
+      <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="60" t="s">
+      <c r="A10" s="66"/>
+      <c r="B10" s="50" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="28"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="42"/>
+      <c r="D10" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="50" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="28"/>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="72" t="s">
         <v>108</v>
       </c>
       <c r="E11" s="27"/>
@@ -6707,15 +6719,15 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="42"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="51" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="52" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="27"/>
@@ -6723,21 +6735,21 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="42"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -7728,17 +7740,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -7747,14 +7756,17 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -7766,7 +7778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -7781,17 +7793,17 @@
       <c r="A1" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="67" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="67" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="35" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="74"/>
-      <c r="H1" s="55"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
@@ -7803,49 +7815,49 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="49"/>
+      <c r="A2" s="60"/>
       <c r="B2" s="30"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="68"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="75"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="72">
+      <c r="H2" s="38"/>
+      <c r="I2" s="43">
         <v>45631</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="64"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="49"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="70"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="76"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="65"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="66"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -9529,247 +9541,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
       <c r="D1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121" t="s">
+      <c r="F1" s="84"/>
+      <c r="G1" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="122"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="115" t="s">
+      <c r="E2" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115" t="s">
+      <c r="F2" s="78"/>
+      <c r="G2" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="118"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="123" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="124"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="114"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="124"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="114"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="124"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="114"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="114"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="124"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="87"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="114"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="87"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="114"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="87"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="114"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115" t="s">
+      <c r="F10" s="78"/>
+      <c r="G10" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="118"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="81"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="114"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115" t="s">
+      <c r="A11" s="77"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115" t="s">
+      <c r="F11" s="78"/>
+      <c r="G11" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="118"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="81"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="125" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="115" t="s">
+      <c r="E12" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115" t="s">
+      <c r="F12" s="78"/>
+      <c r="G12" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="118"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="A13" s="114"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="118"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="81"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="115" t="s">
+      <c r="E14" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115" t="s">
+      <c r="F14" s="78"/>
+      <c r="G14" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="118"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="81"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="116"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="117" t="s">
+      <c r="E15" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117" t="s">
+      <c r="F15" s="80"/>
+      <c r="G15" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="119"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="82"/>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" thickTop="1">
       <c r="A16" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="67" t="s">
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="103"/>
-      <c r="F16" s="67" t="s">
+      <c r="E16" s="122"/>
+      <c r="F16" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="103"/>
+      <c r="G16" s="122"/>
       <c r="H16" s="4" t="s">
         <v>7</v>
       </c>
@@ -9781,93 +9793,93 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1">
-      <c r="A17" s="96"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="68" t="s">
+      <c r="A17" s="116"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="72">
+      <c r="E17" s="103"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="43">
         <v>45631</v>
       </c>
-      <c r="I17" s="61" t="s">
+      <c r="I17" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="64"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1">
-      <c r="A18" s="96"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="92"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="112"/>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A19" s="98"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="93"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="113"/>
     </row>
     <row r="20" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="38" t="s">
+      <c r="B20" s="120"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="106"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="123"/>
     </row>
     <row r="21" spans="1:10" ht="21" customHeight="1">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="108"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="125"/>
     </row>
     <row r="22" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A22" s="109" t="e" vm="1">
+      <c r="A22" s="97" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="111"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="99"/>
     </row>
     <row r="23" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A23" s="49"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
@@ -9876,10 +9888,10 @@
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
-      <c r="J23" s="112"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A24" s="49"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -9888,10 +9900,10 @@
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
-      <c r="J24" s="112"/>
+      <c r="J24" s="100"/>
     </row>
     <row r="25" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A25" s="49"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -9900,10 +9912,10 @@
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
-      <c r="J25" s="112"/>
+      <c r="J25" s="100"/>
     </row>
     <row r="26" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A26" s="49"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
@@ -9912,10 +9924,10 @@
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
-      <c r="J26" s="112"/>
+      <c r="J26" s="100"/>
     </row>
     <row r="27" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A27" s="49"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -9924,10 +9936,10 @@
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
-      <c r="J27" s="112"/>
+      <c r="J27" s="100"/>
     </row>
     <row r="28" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A28" s="49"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -9936,10 +9948,10 @@
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
-      <c r="J28" s="112"/>
+      <c r="J28" s="100"/>
     </row>
     <row r="29" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="95" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="27"/>
@@ -9950,15 +9962,15 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="42"/>
+      <c r="J29" s="53"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="95" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="52" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="27"/>
@@ -9973,7 +9985,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="95" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="27"/>
@@ -9990,14 +10002,14 @@
       <c r="G31" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="113" t="s">
+      <c r="H31" s="96" t="s">
         <v>19</v>
       </c>
       <c r="I31" s="27"/>
-      <c r="J31" s="42"/>
+      <c r="J31" s="53"/>
     </row>
     <row r="32" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="89" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="27"/>
@@ -10010,14 +10022,14 @@
         <v>50</v>
       </c>
       <c r="G32" s="18"/>
-      <c r="H32" s="41" t="s">
+      <c r="H32" s="52" t="s">
         <v>56</v>
       </c>
       <c r="I32" s="27"/>
-      <c r="J32" s="42"/>
+      <c r="J32" s="53"/>
     </row>
     <row r="33" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="89" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="27"/>
@@ -10030,14 +10042,14 @@
         <v>51</v>
       </c>
       <c r="G33" s="18"/>
-      <c r="H33" s="41" t="s">
+      <c r="H33" s="52" t="s">
         <v>66</v>
       </c>
       <c r="I33" s="27"/>
-      <c r="J33" s="42"/>
+      <c r="J33" s="53"/>
     </row>
     <row r="34" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="89" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="27"/>
@@ -10050,14 +10062,14 @@
         <v>52</v>
       </c>
       <c r="G34" s="18"/>
-      <c r="H34" s="41" t="s">
+      <c r="H34" s="52" t="s">
         <v>64</v>
       </c>
       <c r="I34" s="27"/>
-      <c r="J34" s="42"/>
+      <c r="J34" s="53"/>
     </row>
     <row r="35" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="89" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="27"/>
@@ -10070,14 +10082,14 @@
         <v>53</v>
       </c>
       <c r="G35" s="18"/>
-      <c r="H35" s="41" t="s">
+      <c r="H35" s="52" t="s">
         <v>57</v>
       </c>
       <c r="I35" s="27"/>
-      <c r="J35" s="42"/>
+      <c r="J35" s="53"/>
     </row>
     <row r="36" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="89" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="27"/>
@@ -10090,14 +10102,14 @@
         <v>54</v>
       </c>
       <c r="G36" s="18"/>
-      <c r="H36" s="41" t="s">
+      <c r="H36" s="52" t="s">
         <v>65</v>
       </c>
       <c r="I36" s="27"/>
-      <c r="J36" s="42"/>
+      <c r="J36" s="53"/>
     </row>
     <row r="37" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="89" t="s">
         <v>49</v>
       </c>
       <c r="B37" s="27"/>
@@ -10110,18 +10122,18 @@
         <v>55</v>
       </c>
       <c r="G37" s="18"/>
-      <c r="H37" s="41" t="s">
+      <c r="H37" s="52" t="s">
         <v>58</v>
       </c>
       <c r="I37" s="27"/>
-      <c r="J37" s="42"/>
+      <c r="J37" s="53"/>
     </row>
     <row r="38" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="78"/>
-      <c r="C38" s="79"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="91"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21" t="s">
         <v>71</v>
@@ -10130,18 +10142,18 @@
       <c r="G38" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H38" s="41" t="s">
+      <c r="H38" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="I38" s="80"/>
-      <c r="J38" s="81"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="93"/>
     </row>
     <row r="39" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="78"/>
-      <c r="C39" s="79"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21" t="s">
         <v>71</v>
@@ -10150,18 +10162,18 @@
       <c r="G39" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H39" s="41" t="s">
+      <c r="H39" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I39" s="80"/>
-      <c r="J39" s="81"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="93"/>
     </row>
     <row r="40" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="79"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21" t="s">
         <v>72</v>
@@ -10170,44 +10182,44 @@
       <c r="G40" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="41" t="s">
+      <c r="H40" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="I40" s="80"/>
-      <c r="J40" s="81"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="93"/>
     </row>
     <row r="41" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A41" s="104"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="45"/>
+      <c r="A41" s="94"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="35" t="s">
+      <c r="H41" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="I41" s="36"/>
-      <c r="J41" s="37"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="69"/>
     </row>
     <row r="42" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A42" s="100" t="s">
+      <c r="A42" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="105" t="s">
+      <c r="B42" s="64"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="40"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="71"/>
     </row>
     <row r="43" spans="1:10" ht="21" customHeight="1">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="95" t="s">
         <v>23</v>
       </c>
       <c r="B43" s="27"/>
@@ -10218,24 +10230,24 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="42"/>
+      <c r="J43" s="53"/>
     </row>
     <row r="44" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A44" s="109" t="e" vm="2">
+      <c r="A44" s="97" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="B44" s="110"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="111"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="99"/>
     </row>
     <row r="45" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A45" s="49"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
@@ -10244,10 +10256,10 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
-      <c r="J45" s="112"/>
+      <c r="J45" s="100"/>
     </row>
     <row r="46" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A46" s="49"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
@@ -10256,10 +10268,10 @@
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
-      <c r="J46" s="112"/>
+      <c r="J46" s="100"/>
     </row>
     <row r="47" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A47" s="49"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
@@ -10268,10 +10280,10 @@
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
-      <c r="J47" s="112"/>
+      <c r="J47" s="100"/>
     </row>
     <row r="48" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A48" s="49"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
@@ -10280,10 +10292,10 @@
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
-      <c r="J48" s="112"/>
+      <c r="J48" s="100"/>
     </row>
     <row r="49" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A49" s="49"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
@@ -10292,10 +10304,10 @@
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
       <c r="I49" s="30"/>
-      <c r="J49" s="112"/>
+      <c r="J49" s="100"/>
     </row>
     <row r="50" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A50" s="49"/>
+      <c r="A50" s="60"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="30"/>
@@ -10304,10 +10316,10 @@
       <c r="G50" s="30"/>
       <c r="H50" s="30"/>
       <c r="I50" s="30"/>
-      <c r="J50" s="112"/>
+      <c r="J50" s="100"/>
     </row>
     <row r="51" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A51" s="82" t="s">
+      <c r="A51" s="95" t="s">
         <v>24</v>
       </c>
       <c r="B51" s="27"/>
@@ -10318,15 +10330,15 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="42"/>
+      <c r="J51" s="53"/>
     </row>
     <row r="52" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A52" s="82" t="s">
+      <c r="A52" s="95" t="s">
         <v>25</v>
       </c>
       <c r="B52" s="27"/>
       <c r="C52" s="28"/>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="52" t="s">
         <v>76</v>
       </c>
       <c r="E52" s="27"/>
@@ -10341,7 +10353,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A53" s="82" t="s">
+      <c r="A53" s="95" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="27"/>
@@ -10358,14 +10370,14 @@
       <c r="G53" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H53" s="113" t="s">
+      <c r="H53" s="96" t="s">
         <v>19</v>
       </c>
       <c r="I53" s="27"/>
-      <c r="J53" s="42"/>
+      <c r="J53" s="53"/>
     </row>
     <row r="54" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A54" s="77" t="s">
+      <c r="A54" s="89" t="s">
         <v>69</v>
       </c>
       <c r="B54" s="27"/>
@@ -10378,138 +10390,138 @@
       <c r="G54" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H54" s="41" t="s">
+      <c r="H54" s="52" t="s">
         <v>80</v>
       </c>
       <c r="I54" s="27"/>
-      <c r="J54" s="42"/>
+      <c r="J54" s="53"/>
     </row>
     <row r="55" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A55" s="77"/>
+      <c r="A55" s="89"/>
       <c r="B55" s="27"/>
       <c r="C55" s="28"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="18"/>
-      <c r="H55" s="41"/>
+      <c r="H55" s="52"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="42"/>
+      <c r="J55" s="53"/>
     </row>
     <row r="56" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A56" s="77"/>
+      <c r="A56" s="89"/>
       <c r="B56" s="27"/>
       <c r="C56" s="28"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="18"/>
-      <c r="H56" s="41"/>
+      <c r="H56" s="52"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="42"/>
+      <c r="J56" s="53"/>
     </row>
     <row r="57" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A57" s="77"/>
+      <c r="A57" s="89"/>
       <c r="B57" s="27"/>
       <c r="C57" s="28"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="G57" s="18"/>
-      <c r="H57" s="41"/>
+      <c r="H57" s="52"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="42"/>
+      <c r="J57" s="53"/>
     </row>
     <row r="58" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A58" s="77"/>
+      <c r="A58" s="89"/>
       <c r="B58" s="27"/>
       <c r="C58" s="28"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
       <c r="G58" s="18"/>
-      <c r="H58" s="41"/>
+      <c r="H58" s="52"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="42"/>
+      <c r="J58" s="53"/>
     </row>
     <row r="59" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A59" s="77"/>
+      <c r="A59" s="89"/>
       <c r="B59" s="27"/>
       <c r="C59" s="28"/>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="G59" s="18"/>
-      <c r="H59" s="41"/>
+      <c r="H59" s="52"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="42"/>
+      <c r="J59" s="53"/>
     </row>
     <row r="60" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A60" s="77"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="79"/>
+      <c r="A60" s="89"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="91"/>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
       <c r="F60" s="22"/>
       <c r="G60" s="21"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="81"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="92"/>
+      <c r="J60" s="93"/>
     </row>
     <row r="61" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A61" s="77"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="79"/>
+      <c r="A61" s="89"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="91"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="22"/>
       <c r="G61" s="21"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="81"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="92"/>
+      <c r="J61" s="93"/>
     </row>
     <row r="62" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A62" s="77"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="79"/>
+      <c r="A62" s="89"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="91"/>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
       <c r="F62" s="22"/>
       <c r="G62" s="21"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="80"/>
-      <c r="J62" s="81"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="92"/>
+      <c r="J62" s="93"/>
     </row>
     <row r="63" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A63" s="104"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="45"/>
+      <c r="A63" s="94"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="56"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="37"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="69"/>
     </row>
     <row r="64" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A64" s="100" t="s">
+      <c r="A64" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="39"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="105" t="s">
+      <c r="B64" s="64"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="40"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="71"/>
     </row>
     <row r="65" spans="1:10" ht="21" customHeight="1">
-      <c r="A65" s="82" t="s">
+      <c r="A65" s="95" t="s">
         <v>23</v>
       </c>
       <c r="B65" s="27"/>
@@ -10520,24 +10532,24 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="42"/>
+      <c r="J65" s="53"/>
     </row>
     <row r="66" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A66" s="109" t="e" vm="3">
+      <c r="A66" s="97" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="B66" s="110"/>
-      <c r="C66" s="110"/>
-      <c r="D66" s="110"/>
-      <c r="E66" s="110"/>
-      <c r="F66" s="110"/>
-      <c r="G66" s="110"/>
-      <c r="H66" s="110"/>
-      <c r="I66" s="110"/>
-      <c r="J66" s="111"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="98"/>
+      <c r="G66" s="98"/>
+      <c r="H66" s="98"/>
+      <c r="I66" s="98"/>
+      <c r="J66" s="99"/>
     </row>
     <row r="67" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A67" s="49"/>
+      <c r="A67" s="60"/>
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
@@ -10546,10 +10558,10 @@
       <c r="G67" s="30"/>
       <c r="H67" s="30"/>
       <c r="I67" s="30"/>
-      <c r="J67" s="112"/>
+      <c r="J67" s="100"/>
     </row>
     <row r="68" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A68" s="49"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
@@ -10558,10 +10570,10 @@
       <c r="G68" s="30"/>
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
-      <c r="J68" s="112"/>
+      <c r="J68" s="100"/>
     </row>
     <row r="69" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A69" s="49"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
       <c r="D69" s="30"/>
@@ -10570,10 +10582,10 @@
       <c r="G69" s="30"/>
       <c r="H69" s="30"/>
       <c r="I69" s="30"/>
-      <c r="J69" s="112"/>
+      <c r="J69" s="100"/>
     </row>
     <row r="70" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A70" s="49"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
       <c r="D70" s="30"/>
@@ -10582,10 +10594,10 @@
       <c r="G70" s="30"/>
       <c r="H70" s="30"/>
       <c r="I70" s="30"/>
-      <c r="J70" s="112"/>
+      <c r="J70" s="100"/>
     </row>
     <row r="71" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A71" s="49"/>
+      <c r="A71" s="60"/>
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
       <c r="D71" s="30"/>
@@ -10594,10 +10606,10 @@
       <c r="G71" s="30"/>
       <c r="H71" s="30"/>
       <c r="I71" s="30"/>
-      <c r="J71" s="112"/>
+      <c r="J71" s="100"/>
     </row>
     <row r="72" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A72" s="49"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
       <c r="D72" s="30"/>
@@ -10606,10 +10618,10 @@
       <c r="G72" s="30"/>
       <c r="H72" s="30"/>
       <c r="I72" s="30"/>
-      <c r="J72" s="112"/>
+      <c r="J72" s="100"/>
     </row>
     <row r="73" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A73" s="82" t="s">
+      <c r="A73" s="95" t="s">
         <v>24</v>
       </c>
       <c r="B73" s="27"/>
@@ -10620,15 +10632,15 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="42"/>
+      <c r="J73" s="53"/>
     </row>
     <row r="74" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A74" s="82" t="s">
+      <c r="A74" s="95" t="s">
         <v>25</v>
       </c>
       <c r="B74" s="27"/>
       <c r="C74" s="28"/>
-      <c r="D74" s="41" t="s">
+      <c r="D74" s="52" t="s">
         <v>77</v>
       </c>
       <c r="E74" s="27"/>
@@ -10643,7 +10655,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A75" s="82" t="s">
+      <c r="A75" s="95" t="s">
         <v>27</v>
       </c>
       <c r="B75" s="27"/>
@@ -10660,14 +10672,14 @@
       <c r="G75" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H75" s="113" t="s">
+      <c r="H75" s="96" t="s">
         <v>19</v>
       </c>
       <c r="I75" s="27"/>
-      <c r="J75" s="42"/>
+      <c r="J75" s="53"/>
     </row>
     <row r="76" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A76" s="77" t="s">
+      <c r="A76" s="89" t="s">
         <v>78</v>
       </c>
       <c r="B76" s="27"/>
@@ -10680,119 +10692,119 @@
       <c r="G76" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H76" s="41" t="s">
+      <c r="H76" s="52" t="s">
         <v>79</v>
       </c>
       <c r="I76" s="27"/>
-      <c r="J76" s="42"/>
+      <c r="J76" s="53"/>
     </row>
     <row r="77" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A77" s="77"/>
+      <c r="A77" s="89"/>
       <c r="B77" s="27"/>
       <c r="C77" s="28"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
       <c r="G77" s="18"/>
-      <c r="H77" s="41"/>
+      <c r="H77" s="52"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="42"/>
+      <c r="J77" s="53"/>
     </row>
     <row r="78" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A78" s="77"/>
+      <c r="A78" s="89"/>
       <c r="B78" s="27"/>
       <c r="C78" s="28"/>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="18"/>
-      <c r="H78" s="41"/>
+      <c r="H78" s="52"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="42"/>
+      <c r="J78" s="53"/>
     </row>
     <row r="79" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A79" s="77"/>
+      <c r="A79" s="89"/>
       <c r="B79" s="27"/>
       <c r="C79" s="28"/>
       <c r="D79" s="17"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="18"/>
-      <c r="H79" s="41"/>
+      <c r="H79" s="52"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="42"/>
+      <c r="J79" s="53"/>
     </row>
     <row r="80" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A80" s="77"/>
+      <c r="A80" s="89"/>
       <c r="B80" s="27"/>
       <c r="C80" s="28"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="18"/>
-      <c r="H80" s="41"/>
+      <c r="H80" s="52"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="42"/>
+      <c r="J80" s="53"/>
     </row>
     <row r="81" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A81" s="77"/>
+      <c r="A81" s="89"/>
       <c r="B81" s="27"/>
       <c r="C81" s="28"/>
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="18"/>
-      <c r="H81" s="41"/>
+      <c r="H81" s="52"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="42"/>
+      <c r="J81" s="53"/>
     </row>
     <row r="82" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A82" s="77"/>
-      <c r="B82" s="78"/>
-      <c r="C82" s="79"/>
+      <c r="A82" s="89"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="91"/>
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
       <c r="F82" s="22"/>
       <c r="G82" s="21"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="80"/>
-      <c r="J82" s="81"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="92"/>
+      <c r="J82" s="93"/>
     </row>
     <row r="83" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A83" s="77"/>
-      <c r="B83" s="78"/>
-      <c r="C83" s="79"/>
+      <c r="A83" s="89"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="91"/>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
       <c r="F83" s="22"/>
       <c r="G83" s="21"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="80"/>
-      <c r="J83" s="81"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="92"/>
+      <c r="J83" s="93"/>
     </row>
     <row r="84" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A84" s="77"/>
-      <c r="B84" s="78"/>
-      <c r="C84" s="79"/>
+      <c r="A84" s="89"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="91"/>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
       <c r="F84" s="22"/>
       <c r="G84" s="21"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="80"/>
-      <c r="J84" s="81"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="92"/>
+      <c r="J84" s="93"/>
     </row>
     <row r="85" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A85" s="104"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="45"/>
+      <c r="A85" s="94"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="56"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" s="20"/>
       <c r="G85" s="20"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="37"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="69"/>
     </row>
     <row r="86" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="87" spans="1:10" ht="12.75" customHeight="1"/>
@@ -11729,49 +11741,55 @@
     <row r="1018" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G12:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C11"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="F17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="A16:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="D17:E19"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H53:J53"/>
     <mergeCell ref="A65:J65"/>
     <mergeCell ref="A66:J72"/>
     <mergeCell ref="A73:J73"/>
@@ -11796,55 +11814,49 @@
     <mergeCell ref="H61:J61"/>
     <mergeCell ref="A56:C56"/>
     <mergeCell ref="H56:J56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="F17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="A16:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="D17:E19"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G12:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C11"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F13"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/設計書/Shino/プロジェクト型演習_成果物(登録).xlsx
+++ b/設計書/Shino/プロジェクト型演習_成果物(登録).xlsx
@@ -8,43 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\設計書\Shino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE73F6C3-8B38-4D21-A640-1934FE678F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B006396C-12F7-4165-B528-73D47D5A2302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="ユースケース記述" sheetId="2" r:id="rId2"/>
-    <sheet name="詳細クラス図" sheetId="4" r:id="rId3"/>
-    <sheet name="画面設計書" sheetId="5" r:id="rId4"/>
+    <sheet name="画面設計書" sheetId="5" r:id="rId3"/>
+    <sheet name="詳細クラス図" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLRICHVALUE" count="3">
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="0"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="1"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="2"/>
         </ext>
       </extLst>
@@ -1672,12 +1672,111 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1687,105 +1786,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1798,6 +1804,117 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1833,123 +1950,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5359,12 +5359,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16" width="7.81640625" customWidth="1"/>
-    <col min="17" max="26" width="8.81640625" customWidth="1"/>
+    <col min="1" max="16" width="7.85546875" customWidth="1"/>
+    <col min="17" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
@@ -6530,31 +6530,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="5.08984375" customWidth="1"/>
-    <col min="4" max="10" width="16.81640625" customWidth="1"/>
-    <col min="11" max="26" width="8.81640625" customWidth="1"/>
+    <col min="1" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="35" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="36"/>
+      <c r="G1" s="57"/>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
@@ -6566,70 +6566,70 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="60"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="30"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="43">
+      <c r="E2" s="71"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="74">
         <v>45631</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="47"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="60"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="48"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="49"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="70" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="71"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="58" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="41" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="27"/>
@@ -6637,15 +6637,15 @@
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
-      <c r="J6" s="53"/>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="41" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="27"/>
@@ -6653,15 +6653,15 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="53"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="58" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="41" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27"/>
@@ -6669,17 +6669,17 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="53"/>
+      <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="62" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="28"/>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="43" t="s">
         <v>61</v>
       </c>
       <c r="E9" s="27"/>
@@ -6687,31 +6687,31 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="53"/>
+      <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="62" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="28"/>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="127"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="67"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="62" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="28"/>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="43" t="s">
         <v>108</v>
       </c>
       <c r="E11" s="27"/>
@@ -6719,15 +6719,15 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="53"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="58" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="41" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="27"/>
@@ -6735,21 +6735,21 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="53"/>
+      <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="69"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -7740,6 +7740,25 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
@@ -7748,25 +7767,6 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -7775,35 +7775,2377 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J1018"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="26" width="8.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" thickTop="1">
+      <c r="A1" s="122" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="123" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="124"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1">
+      <c r="A2" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="120"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1">
+      <c r="A3" s="116"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="125" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="126"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="A4" s="116"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="126"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
+      <c r="A5" s="116"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="126"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1">
+      <c r="A6" s="116"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
+      <c r="A7" s="116"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="126"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1">
+      <c r="A8" s="116"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="126"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1">
+      <c r="A9" s="116"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="126"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1">
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="120"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1">
+      <c r="A11" s="116"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="120"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1">
+      <c r="A12" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="127" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="117" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="120"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1">
+      <c r="A13" s="116"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="120"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1">
+      <c r="A14" s="116" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="117" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="120"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="A15" s="118"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="121"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1" thickTop="1">
+      <c r="A16" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="96"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="105"/>
+      <c r="F16" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="105"/>
+      <c r="H16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18" customHeight="1">
+      <c r="A17" s="98"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="85"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="74">
+        <v>45631</v>
+      </c>
+      <c r="I17" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="66"/>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1">
+      <c r="A18" s="98"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="94"/>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A19" s="100"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="95"/>
+    </row>
+    <row r="20" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A20" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="103"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="108"/>
+    </row>
+    <row r="21" spans="1:10" ht="21" customHeight="1">
+      <c r="A21" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="110"/>
+    </row>
+    <row r="22" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A22" s="111" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="113"/>
+    </row>
+    <row r="23" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A23" s="51"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="114"/>
+    </row>
+    <row r="24" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A24" s="51"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="114"/>
+    </row>
+    <row r="25" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A25" s="51"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="114"/>
+    </row>
+    <row r="26" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A26" s="51"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="114"/>
+    </row>
+    <row r="27" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A27" s="51"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="114"/>
+    </row>
+    <row r="28" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A28" s="51"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="114"/>
+    </row>
+    <row r="29" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A29" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="42"/>
+    </row>
+    <row r="30" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A30" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A31" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="27"/>
+      <c r="J31" s="42"/>
+    </row>
+    <row r="32" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A32" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="27"/>
+      <c r="J32" s="42"/>
+    </row>
+    <row r="33" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A33" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="27"/>
+      <c r="J33" s="42"/>
+    </row>
+    <row r="34" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A34" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="27"/>
+      <c r="J34" s="42"/>
+    </row>
+    <row r="35" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A35" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="27"/>
+      <c r="J35" s="42"/>
+    </row>
+    <row r="36" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A36" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="27"/>
+      <c r="J36" s="42"/>
+    </row>
+    <row r="37" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A37" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="27"/>
+      <c r="J37" s="42"/>
+    </row>
+    <row r="38" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A38" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="80"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="22"/>
+      <c r="G38" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" s="82"/>
+      <c r="J38" s="83"/>
+    </row>
+    <row r="39" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A39" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="80"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="22"/>
+      <c r="G39" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" s="82"/>
+      <c r="J39" s="83"/>
+    </row>
+    <row r="40" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A40" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="80"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="82"/>
+      <c r="J40" s="83"/>
+    </row>
+    <row r="41" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A41" s="106"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="36"/>
+      <c r="J41" s="37"/>
+    </row>
+    <row r="42" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A42" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="39"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="40"/>
+    </row>
+    <row r="43" spans="1:10" ht="21" customHeight="1">
+      <c r="A43" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="42"/>
+    </row>
+    <row r="44" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A44" s="111" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="112"/>
+      <c r="J44" s="113"/>
+    </row>
+    <row r="45" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A45" s="51"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="114"/>
+    </row>
+    <row r="46" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A46" s="51"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="114"/>
+    </row>
+    <row r="47" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A47" s="51"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="114"/>
+    </row>
+    <row r="48" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A48" s="51"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="114"/>
+    </row>
+    <row r="49" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A49" s="51"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="114"/>
+    </row>
+    <row r="50" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A50" s="51"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="114"/>
+    </row>
+    <row r="51" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A51" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="42"/>
+    </row>
+    <row r="52" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A52" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="27"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A53" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="27"/>
+      <c r="J53" s="42"/>
+    </row>
+    <row r="54" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A54" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="27"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="17"/>
+      <c r="G54" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H54" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54" s="27"/>
+      <c r="J54" s="42"/>
+    </row>
+    <row r="55" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A55" s="79"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="42"/>
+    </row>
+    <row r="56" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A56" s="79"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="42"/>
+    </row>
+    <row r="57" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A57" s="79"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="42"/>
+    </row>
+    <row r="58" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A58" s="79"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="42"/>
+    </row>
+    <row r="59" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A59" s="79"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="42"/>
+    </row>
+    <row r="60" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A60" s="79"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="83"/>
+    </row>
+    <row r="61" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A61" s="79"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="82"/>
+      <c r="J61" s="83"/>
+    </row>
+    <row r="62" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A62" s="79"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="82"/>
+      <c r="J62" s="83"/>
+    </row>
+    <row r="63" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A63" s="106"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="37"/>
+    </row>
+    <row r="64" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A64" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="39"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="40"/>
+    </row>
+    <row r="65" spans="1:10" ht="21" customHeight="1">
+      <c r="A65" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="42"/>
+    </row>
+    <row r="66" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A66" s="111" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B66" s="112"/>
+      <c r="C66" s="112"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="112"/>
+      <c r="G66" s="112"/>
+      <c r="H66" s="112"/>
+      <c r="I66" s="112"/>
+      <c r="J66" s="113"/>
+    </row>
+    <row r="67" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A67" s="51"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="114"/>
+    </row>
+    <row r="68" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A68" s="51"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="114"/>
+    </row>
+    <row r="69" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A69" s="51"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="114"/>
+    </row>
+    <row r="70" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A70" s="51"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="114"/>
+    </row>
+    <row r="71" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A71" s="51"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="114"/>
+    </row>
+    <row r="72" spans="1:10" ht="35.450000000000003" customHeight="1">
+      <c r="A72" s="51"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="114"/>
+    </row>
+    <row r="73" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A73" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="42"/>
+    </row>
+    <row r="74" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A74" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="27"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A75" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="27"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" s="27"/>
+      <c r="J75" s="42"/>
+    </row>
+    <row r="76" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A76" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="27"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F76" s="17"/>
+      <c r="G76" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H76" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I76" s="27"/>
+      <c r="J76" s="42"/>
+    </row>
+    <row r="77" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A77" s="79"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="42"/>
+    </row>
+    <row r="78" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A78" s="79"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="42"/>
+    </row>
+    <row r="79" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A79" s="79"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="42"/>
+    </row>
+    <row r="80" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A80" s="79"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="42"/>
+    </row>
+    <row r="81" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A81" s="79"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="42"/>
+    </row>
+    <row r="82" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A82" s="79"/>
+      <c r="B82" s="80"/>
+      <c r="C82" s="81"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="82"/>
+      <c r="J82" s="83"/>
+    </row>
+    <row r="83" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A83" s="79"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="82"/>
+      <c r="J83" s="83"/>
+    </row>
+    <row r="84" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A84" s="79"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="81"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="82"/>
+      <c r="J84" s="83"/>
+    </row>
+    <row r="85" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A85" s="106"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="37"/>
+    </row>
+    <row r="86" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="87" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="88" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="89" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="90" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="91" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="92" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="93" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="94" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="95" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="96" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+    <row r="1001" ht="12.75" customHeight="1"/>
+    <row r="1002" ht="12.75" customHeight="1"/>
+    <row r="1003" ht="12.75" customHeight="1"/>
+    <row r="1004" ht="12.75" customHeight="1"/>
+    <row r="1005" ht="12.75" customHeight="1"/>
+    <row r="1006" ht="12.75" customHeight="1"/>
+    <row r="1007" ht="12.75" customHeight="1"/>
+    <row r="1008" ht="12.75" customHeight="1"/>
+    <row r="1009" ht="12.75" customHeight="1"/>
+    <row r="1010" ht="12.75" customHeight="1"/>
+    <row r="1011" ht="12.75" customHeight="1"/>
+    <row r="1012" ht="12.75" customHeight="1"/>
+    <row r="1013" ht="12.75" customHeight="1"/>
+    <row r="1014" ht="12.75" customHeight="1"/>
+    <row r="1015" ht="12.75" customHeight="1"/>
+    <row r="1016" ht="12.75" customHeight="1"/>
+    <row r="1017" ht="12.75" customHeight="1"/>
+    <row r="1018" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="116">
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G12:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C11"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A66:J72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="F17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="A16:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="D17:E19"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K1023"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="5.08984375" customWidth="1"/>
-    <col min="4" max="11" width="16.81640625" customWidth="1"/>
-    <col min="12" max="27" width="8.81640625" customWidth="1"/>
+    <col min="1" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="27" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="35" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="74"/>
-      <c r="H1" s="36"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="57"/>
       <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
@@ -7815,49 +10157,49 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="60"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="30"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="43">
+      <c r="E2" s="71"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="74">
         <v>45631</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="47"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="60"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="48"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="49"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="68"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -8119,7 +10461,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" ht="12.5" customHeight="1">
+    <row r="25" spans="1:11" ht="12.6" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -9520,2346 +11862,4 @@
   <pageSetup paperSize="9" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J1018"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="3" width="5.08984375" customWidth="1"/>
-    <col min="4" max="10" width="16.81640625" customWidth="1"/>
-    <col min="11" max="26" width="8.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="85"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="81"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="87"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="87"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="87"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="87"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="87"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="81"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="81"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="81"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="81"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="81"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="79"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="82"/>
-    </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" thickTop="1">
-      <c r="A16" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="122"/>
-      <c r="F16" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="122"/>
-      <c r="H16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1">
-      <c r="A17" s="116"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="43">
-        <v>45631</v>
-      </c>
-      <c r="I17" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="47"/>
-    </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1">
-      <c r="A18" s="116"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="112"/>
-    </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A19" s="118"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="113"/>
-    </row>
-    <row r="20" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A20" s="101" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="123"/>
-    </row>
-    <row r="21" spans="1:10" ht="21" customHeight="1">
-      <c r="A21" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="124"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
-    </row>
-    <row r="22" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A22" s="97" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="99"/>
-    </row>
-    <row r="23" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A23" s="60"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="100"/>
-    </row>
-    <row r="24" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A24" s="60"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="100"/>
-    </row>
-    <row r="25" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A25" s="60"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="100"/>
-    </row>
-    <row r="26" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A26" s="60"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="100"/>
-    </row>
-    <row r="27" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A27" s="60"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="100"/>
-    </row>
-    <row r="28" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A28" s="60"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="100"/>
-    </row>
-    <row r="29" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A29" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="53"/>
-    </row>
-    <row r="30" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A30" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A31" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="53"/>
-    </row>
-    <row r="32" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A32" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="53"/>
-    </row>
-    <row r="33" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A33" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="53"/>
-    </row>
-    <row r="34" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A34" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I34" s="27"/>
-      <c r="J34" s="53"/>
-    </row>
-    <row r="35" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A35" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="53"/>
-    </row>
-    <row r="36" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A36" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="I36" s="27"/>
-      <c r="J36" s="53"/>
-    </row>
-    <row r="37" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A37" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="53"/>
-    </row>
-    <row r="38" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A38" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="90"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="I38" s="92"/>
-      <c r="J38" s="93"/>
-    </row>
-    <row r="39" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A39" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="90"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="H39" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="I39" s="92"/>
-      <c r="J39" s="93"/>
-    </row>
-    <row r="40" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A40" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="90"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H40" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="I40" s="92"/>
-      <c r="J40" s="93"/>
-    </row>
-    <row r="41" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A41" s="94"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="I41" s="55"/>
-      <c r="J41" s="69"/>
-    </row>
-    <row r="42" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A42" s="101" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="71"/>
-    </row>
-    <row r="43" spans="1:10" ht="21" customHeight="1">
-      <c r="A43" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="53"/>
-    </row>
-    <row r="44" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A44" s="97" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="99"/>
-    </row>
-    <row r="45" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A45" s="60"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="100"/>
-    </row>
-    <row r="46" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A46" s="60"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="100"/>
-    </row>
-    <row r="47" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A47" s="60"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="100"/>
-    </row>
-    <row r="48" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A48" s="60"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="100"/>
-    </row>
-    <row r="49" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A49" s="60"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="100"/>
-    </row>
-    <row r="50" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A50" s="60"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="100"/>
-    </row>
-    <row r="51" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A51" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="53"/>
-    </row>
-    <row r="52" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A52" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J52" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A53" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53" s="27"/>
-      <c r="J53" s="53"/>
-    </row>
-    <row r="54" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A54" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F54" s="17"/>
-      <c r="G54" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H54" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="I54" s="27"/>
-      <c r="J54" s="53"/>
-    </row>
-    <row r="55" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A55" s="89"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="53"/>
-    </row>
-    <row r="56" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A56" s="89"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="53"/>
-    </row>
-    <row r="57" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A57" s="89"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="53"/>
-    </row>
-    <row r="58" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A58" s="89"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="53"/>
-    </row>
-    <row r="59" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A59" s="89"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="53"/>
-    </row>
-    <row r="60" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A60" s="89"/>
-      <c r="B60" s="90"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="92"/>
-      <c r="J60" s="93"/>
-    </row>
-    <row r="61" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A61" s="89"/>
-      <c r="B61" s="90"/>
-      <c r="C61" s="91"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="92"/>
-      <c r="J61" s="93"/>
-    </row>
-    <row r="62" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A62" s="89"/>
-      <c r="B62" s="90"/>
-      <c r="C62" s="91"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="92"/>
-      <c r="J62" s="93"/>
-    </row>
-    <row r="63" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A63" s="94"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="69"/>
-    </row>
-    <row r="64" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A64" s="101" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" s="64"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="102" t="s">
-        <v>74</v>
-      </c>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="71"/>
-    </row>
-    <row r="65" spans="1:10" ht="21" customHeight="1">
-      <c r="A65" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="53"/>
-    </row>
-    <row r="66" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A66" s="97" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B66" s="98"/>
-      <c r="C66" s="98"/>
-      <c r="D66" s="98"/>
-      <c r="E66" s="98"/>
-      <c r="F66" s="98"/>
-      <c r="G66" s="98"/>
-      <c r="H66" s="98"/>
-      <c r="I66" s="98"/>
-      <c r="J66" s="99"/>
-    </row>
-    <row r="67" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A67" s="60"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="100"/>
-    </row>
-    <row r="68" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A68" s="60"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="100"/>
-    </row>
-    <row r="69" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A69" s="60"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="100"/>
-    </row>
-    <row r="70" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A70" s="60"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="100"/>
-    </row>
-    <row r="71" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A71" s="60"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="100"/>
-    </row>
-    <row r="72" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A72" s="60"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="100"/>
-    </row>
-    <row r="73" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A73" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="53"/>
-    </row>
-    <row r="74" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A74" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="B74" s="27"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J74" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A75" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="B75" s="27"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H75" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="I75" s="27"/>
-      <c r="J75" s="53"/>
-    </row>
-    <row r="76" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A76" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" s="27"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="H76" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="I76" s="27"/>
-      <c r="J76" s="53"/>
-    </row>
-    <row r="77" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A77" s="89"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="53"/>
-    </row>
-    <row r="78" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A78" s="89"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="53"/>
-    </row>
-    <row r="79" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A79" s="89"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="53"/>
-    </row>
-    <row r="80" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A80" s="89"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="53"/>
-    </row>
-    <row r="81" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A81" s="89"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="53"/>
-    </row>
-    <row r="82" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A82" s="89"/>
-      <c r="B82" s="90"/>
-      <c r="C82" s="91"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="92"/>
-      <c r="J82" s="93"/>
-    </row>
-    <row r="83" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A83" s="89"/>
-      <c r="B83" s="90"/>
-      <c r="C83" s="91"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="92"/>
-      <c r="J83" s="93"/>
-    </row>
-    <row r="84" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A84" s="89"/>
-      <c r="B84" s="90"/>
-      <c r="C84" s="91"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="52"/>
-      <c r="I84" s="92"/>
-      <c r="J84" s="93"/>
-    </row>
-    <row r="85" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A85" s="94"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="69"/>
-    </row>
-    <row r="86" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="87" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="88" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="89" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="90" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="91" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="92" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="93" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="94" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="95" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="96" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="12.75" customHeight="1"/>
-    <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="12.75" customHeight="1"/>
-    <row r="231" ht="12.75" customHeight="1"/>
-    <row r="232" ht="12.75" customHeight="1"/>
-    <row r="233" ht="12.75" customHeight="1"/>
-    <row r="234" ht="12.75" customHeight="1"/>
-    <row r="235" ht="12.75" customHeight="1"/>
-    <row r="236" ht="12.75" customHeight="1"/>
-    <row r="237" ht="12.75" customHeight="1"/>
-    <row r="238" ht="12.75" customHeight="1"/>
-    <row r="239" ht="12.75" customHeight="1"/>
-    <row r="240" ht="12.75" customHeight="1"/>
-    <row r="241" ht="12.75" customHeight="1"/>
-    <row r="242" ht="12.75" customHeight="1"/>
-    <row r="243" ht="12.75" customHeight="1"/>
-    <row r="244" ht="12.75" customHeight="1"/>
-    <row r="245" ht="12.75" customHeight="1"/>
-    <row r="246" ht="12.75" customHeight="1"/>
-    <row r="247" ht="12.75" customHeight="1"/>
-    <row r="248" ht="12.75" customHeight="1"/>
-    <row r="249" ht="12.75" customHeight="1"/>
-    <row r="250" ht="12.75" customHeight="1"/>
-    <row r="251" ht="12.75" customHeight="1"/>
-    <row r="252" ht="12.75" customHeight="1"/>
-    <row r="253" ht="12.75" customHeight="1"/>
-    <row r="254" ht="12.75" customHeight="1"/>
-    <row r="255" ht="12.75" customHeight="1"/>
-    <row r="256" ht="12.75" customHeight="1"/>
-    <row r="257" ht="12.75" customHeight="1"/>
-    <row r="258" ht="12.75" customHeight="1"/>
-    <row r="259" ht="12.75" customHeight="1"/>
-    <row r="260" ht="12.75" customHeight="1"/>
-    <row r="261" ht="12.75" customHeight="1"/>
-    <row r="262" ht="12.75" customHeight="1"/>
-    <row r="263" ht="12.75" customHeight="1"/>
-    <row r="264" ht="12.75" customHeight="1"/>
-    <row r="265" ht="12.75" customHeight="1"/>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
-    <row r="283" ht="12.75" customHeight="1"/>
-    <row r="284" ht="12.75" customHeight="1"/>
-    <row r="285" ht="12.75" customHeight="1"/>
-    <row r="286" ht="12.75" customHeight="1"/>
-    <row r="287" ht="12.75" customHeight="1"/>
-    <row r="288" ht="12.75" customHeight="1"/>
-    <row r="289" ht="12.75" customHeight="1"/>
-    <row r="290" ht="12.75" customHeight="1"/>
-    <row r="291" ht="12.75" customHeight="1"/>
-    <row r="292" ht="12.75" customHeight="1"/>
-    <row r="293" ht="12.75" customHeight="1"/>
-    <row r="294" ht="12.75" customHeight="1"/>
-    <row r="295" ht="12.75" customHeight="1"/>
-    <row r="296" ht="12.75" customHeight="1"/>
-    <row r="297" ht="12.75" customHeight="1"/>
-    <row r="298" ht="12.75" customHeight="1"/>
-    <row r="299" ht="12.75" customHeight="1"/>
-    <row r="300" ht="12.75" customHeight="1"/>
-    <row r="301" ht="12.75" customHeight="1"/>
-    <row r="302" ht="12.75" customHeight="1"/>
-    <row r="303" ht="12.75" customHeight="1"/>
-    <row r="304" ht="12.75" customHeight="1"/>
-    <row r="305" ht="12.75" customHeight="1"/>
-    <row r="306" ht="12.75" customHeight="1"/>
-    <row r="307" ht="12.75" customHeight="1"/>
-    <row r="308" ht="12.75" customHeight="1"/>
-    <row r="309" ht="12.75" customHeight="1"/>
-    <row r="310" ht="12.75" customHeight="1"/>
-    <row r="311" ht="12.75" customHeight="1"/>
-    <row r="312" ht="12.75" customHeight="1"/>
-    <row r="313" ht="12.75" customHeight="1"/>
-    <row r="314" ht="12.75" customHeight="1"/>
-    <row r="315" ht="12.75" customHeight="1"/>
-    <row r="316" ht="12.75" customHeight="1"/>
-    <row r="317" ht="12.75" customHeight="1"/>
-    <row r="318" ht="12.75" customHeight="1"/>
-    <row r="319" ht="12.75" customHeight="1"/>
-    <row r="320" ht="12.75" customHeight="1"/>
-    <row r="321" ht="12.75" customHeight="1"/>
-    <row r="322" ht="12.75" customHeight="1"/>
-    <row r="323" ht="12.75" customHeight="1"/>
-    <row r="324" ht="12.75" customHeight="1"/>
-    <row r="325" ht="12.75" customHeight="1"/>
-    <row r="326" ht="12.75" customHeight="1"/>
-    <row r="327" ht="12.75" customHeight="1"/>
-    <row r="328" ht="12.75" customHeight="1"/>
-    <row r="329" ht="12.75" customHeight="1"/>
-    <row r="330" ht="12.75" customHeight="1"/>
-    <row r="331" ht="12.75" customHeight="1"/>
-    <row r="332" ht="12.75" customHeight="1"/>
-    <row r="333" ht="12.75" customHeight="1"/>
-    <row r="334" ht="12.75" customHeight="1"/>
-    <row r="335" ht="12.75" customHeight="1"/>
-    <row r="336" ht="12.75" customHeight="1"/>
-    <row r="337" ht="12.75" customHeight="1"/>
-    <row r="338" ht="12.75" customHeight="1"/>
-    <row r="339" ht="12.75" customHeight="1"/>
-    <row r="340" ht="12.75" customHeight="1"/>
-    <row r="341" ht="12.75" customHeight="1"/>
-    <row r="342" ht="12.75" customHeight="1"/>
-    <row r="343" ht="12.75" customHeight="1"/>
-    <row r="344" ht="12.75" customHeight="1"/>
-    <row r="345" ht="12.75" customHeight="1"/>
-    <row r="346" ht="12.75" customHeight="1"/>
-    <row r="347" ht="12.75" customHeight="1"/>
-    <row r="348" ht="12.75" customHeight="1"/>
-    <row r="349" ht="12.75" customHeight="1"/>
-    <row r="350" ht="12.75" customHeight="1"/>
-    <row r="351" ht="12.75" customHeight="1"/>
-    <row r="352" ht="12.75" customHeight="1"/>
-    <row r="353" ht="12.75" customHeight="1"/>
-    <row r="354" ht="12.75" customHeight="1"/>
-    <row r="355" ht="12.75" customHeight="1"/>
-    <row r="356" ht="12.75" customHeight="1"/>
-    <row r="357" ht="12.75" customHeight="1"/>
-    <row r="358" ht="12.75" customHeight="1"/>
-    <row r="359" ht="12.75" customHeight="1"/>
-    <row r="360" ht="12.75" customHeight="1"/>
-    <row r="361" ht="12.75" customHeight="1"/>
-    <row r="362" ht="12.75" customHeight="1"/>
-    <row r="363" ht="12.75" customHeight="1"/>
-    <row r="364" ht="12.75" customHeight="1"/>
-    <row r="365" ht="12.75" customHeight="1"/>
-    <row r="366" ht="12.75" customHeight="1"/>
-    <row r="367" ht="12.75" customHeight="1"/>
-    <row r="368" ht="12.75" customHeight="1"/>
-    <row r="369" ht="12.75" customHeight="1"/>
-    <row r="370" ht="12.75" customHeight="1"/>
-    <row r="371" ht="12.75" customHeight="1"/>
-    <row r="372" ht="12.75" customHeight="1"/>
-    <row r="373" ht="12.75" customHeight="1"/>
-    <row r="374" ht="12.75" customHeight="1"/>
-    <row r="375" ht="12.75" customHeight="1"/>
-    <row r="376" ht="12.75" customHeight="1"/>
-    <row r="377" ht="12.75" customHeight="1"/>
-    <row r="378" ht="12.75" customHeight="1"/>
-    <row r="379" ht="12.75" customHeight="1"/>
-    <row r="380" ht="12.75" customHeight="1"/>
-    <row r="381" ht="12.75" customHeight="1"/>
-    <row r="382" ht="12.75" customHeight="1"/>
-    <row r="383" ht="12.75" customHeight="1"/>
-    <row r="384" ht="12.75" customHeight="1"/>
-    <row r="385" ht="12.75" customHeight="1"/>
-    <row r="386" ht="12.75" customHeight="1"/>
-    <row r="387" ht="12.75" customHeight="1"/>
-    <row r="388" ht="12.75" customHeight="1"/>
-    <row r="389" ht="12.75" customHeight="1"/>
-    <row r="390" ht="12.75" customHeight="1"/>
-    <row r="391" ht="12.75" customHeight="1"/>
-    <row r="392" ht="12.75" customHeight="1"/>
-    <row r="393" ht="12.75" customHeight="1"/>
-    <row r="394" ht="12.75" customHeight="1"/>
-    <row r="395" ht="12.75" customHeight="1"/>
-    <row r="396" ht="12.75" customHeight="1"/>
-    <row r="397" ht="12.75" customHeight="1"/>
-    <row r="398" ht="12.75" customHeight="1"/>
-    <row r="399" ht="12.75" customHeight="1"/>
-    <row r="400" ht="12.75" customHeight="1"/>
-    <row r="401" ht="12.75" customHeight="1"/>
-    <row r="402" ht="12.75" customHeight="1"/>
-    <row r="403" ht="12.75" customHeight="1"/>
-    <row r="404" ht="12.75" customHeight="1"/>
-    <row r="405" ht="12.75" customHeight="1"/>
-    <row r="406" ht="12.75" customHeight="1"/>
-    <row r="407" ht="12.75" customHeight="1"/>
-    <row r="408" ht="12.75" customHeight="1"/>
-    <row r="409" ht="12.75" customHeight="1"/>
-    <row r="410" ht="12.75" customHeight="1"/>
-    <row r="411" ht="12.75" customHeight="1"/>
-    <row r="412" ht="12.75" customHeight="1"/>
-    <row r="413" ht="12.75" customHeight="1"/>
-    <row r="414" ht="12.75" customHeight="1"/>
-    <row r="415" ht="12.75" customHeight="1"/>
-    <row r="416" ht="12.75" customHeight="1"/>
-    <row r="417" ht="12.75" customHeight="1"/>
-    <row r="418" ht="12.75" customHeight="1"/>
-    <row r="419" ht="12.75" customHeight="1"/>
-    <row r="420" ht="12.75" customHeight="1"/>
-    <row r="421" ht="12.75" customHeight="1"/>
-    <row r="422" ht="12.75" customHeight="1"/>
-    <row r="423" ht="12.75" customHeight="1"/>
-    <row r="424" ht="12.75" customHeight="1"/>
-    <row r="425" ht="12.75" customHeight="1"/>
-    <row r="426" ht="12.75" customHeight="1"/>
-    <row r="427" ht="12.75" customHeight="1"/>
-    <row r="428" ht="12.75" customHeight="1"/>
-    <row r="429" ht="12.75" customHeight="1"/>
-    <row r="430" ht="12.75" customHeight="1"/>
-    <row r="431" ht="12.75" customHeight="1"/>
-    <row r="432" ht="12.75" customHeight="1"/>
-    <row r="433" ht="12.75" customHeight="1"/>
-    <row r="434" ht="12.75" customHeight="1"/>
-    <row r="435" ht="12.75" customHeight="1"/>
-    <row r="436" ht="12.75" customHeight="1"/>
-    <row r="437" ht="12.75" customHeight="1"/>
-    <row r="438" ht="12.75" customHeight="1"/>
-    <row r="439" ht="12.75" customHeight="1"/>
-    <row r="440" ht="12.75" customHeight="1"/>
-    <row r="441" ht="12.75" customHeight="1"/>
-    <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-    <row r="983" ht="12.75" customHeight="1"/>
-    <row r="984" ht="12.75" customHeight="1"/>
-    <row r="985" ht="12.75" customHeight="1"/>
-    <row r="986" ht="12.75" customHeight="1"/>
-    <row r="987" ht="12.75" customHeight="1"/>
-    <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
-    <row r="1001" ht="12.75" customHeight="1"/>
-    <row r="1002" ht="12.75" customHeight="1"/>
-    <row r="1003" ht="12.75" customHeight="1"/>
-    <row r="1004" ht="12.75" customHeight="1"/>
-    <row r="1005" ht="12.75" customHeight="1"/>
-    <row r="1006" ht="12.75" customHeight="1"/>
-    <row r="1007" ht="12.75" customHeight="1"/>
-    <row r="1008" ht="12.75" customHeight="1"/>
-    <row r="1009" ht="12.75" customHeight="1"/>
-    <row r="1010" ht="12.75" customHeight="1"/>
-    <row r="1011" ht="12.75" customHeight="1"/>
-    <row r="1012" ht="12.75" customHeight="1"/>
-    <row r="1013" ht="12.75" customHeight="1"/>
-    <row r="1014" ht="12.75" customHeight="1"/>
-    <row r="1015" ht="12.75" customHeight="1"/>
-    <row r="1016" ht="12.75" customHeight="1"/>
-    <row r="1017" ht="12.75" customHeight="1"/>
-    <row r="1018" ht="12.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="116">
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="F17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="A16:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="D17:E19"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A66:J72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G12:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C11"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F13"/>
-  </mergeCells>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-</worksheet>
 </file>
--- a/設計書/Shino/プロジェクト型演習_成果物(登録).xlsx
+++ b/設計書/Shino/プロジェクト型演習_成果物(登録).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\設計書\Shino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B006396C-12F7-4165-B528-73D47D5A2302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647CF7CF-3398-44DB-8BE1-B7EB55364269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -23,28 +23,28 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLRICHVALUE" count="3">
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="0"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="1"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="2"/>
         </ext>
       </extLst>
@@ -1672,31 +1672,118 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1705,96 +1792,156 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1803,153 +1950,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2349,7 +2349,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>register-success.jsp</a:t>
+            <a:t>task-register-success.jsp</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
             <a:solidFill>
@@ -2438,7 +2438,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>register-failuire.jsp</a:t>
+            <a:t>task-register-failuire.jsp</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
             <a:solidFill>
@@ -5359,12 +5359,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16" width="7.85546875" customWidth="1"/>
-    <col min="17" max="26" width="8.85546875" customWidth="1"/>
+    <col min="1" max="16" width="7.81640625" customWidth="1"/>
+    <col min="17" max="26" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
@@ -6534,27 +6534,27 @@
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="26" width="8.85546875" customWidth="1"/>
+    <col min="1" max="3" width="5.1796875" customWidth="1"/>
+    <col min="4" max="10" width="16.81640625" customWidth="1"/>
+    <col min="11" max="26" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="69" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="69" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="57"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
@@ -6566,70 +6566,70 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="51"/>
+      <c r="A2" s="60"/>
       <c r="B2" s="30"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="74">
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="43">
         <v>45631</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="66"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="51"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="67"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="68"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="38" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="51" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="52" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="27"/>
@@ -6637,15 +6637,15 @@
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
-      <c r="J6" s="42"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="51" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="52" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="27"/>
@@ -6653,15 +6653,15 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="42"/>
+      <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="51" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="52" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27"/>
@@ -6669,17 +6669,17 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="42"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="28"/>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="72" t="s">
         <v>61</v>
       </c>
       <c r="E9" s="27"/>
@@ -6687,31 +6687,31 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="42"/>
+      <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="62" t="s">
+      <c r="A10" s="66"/>
+      <c r="B10" s="50" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="28"/>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="74"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="50" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="28"/>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="72" t="s">
         <v>108</v>
       </c>
       <c r="E11" s="27"/>
@@ -6719,15 +6719,15 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="42"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="51" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="52" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="27"/>
@@ -6735,21 +6735,21 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="42"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -7740,17 +7740,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -7759,14 +7756,17 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -7785,255 +7785,255 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="26" width="8.85546875" customWidth="1"/>
+    <col min="1" max="3" width="5.1796875" customWidth="1"/>
+    <col min="4" max="10" width="16.81640625" customWidth="1"/>
+    <col min="11" max="26" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
       <c r="D1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="123" t="s">
+      <c r="E1" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123" t="s">
+      <c r="F1" s="82"/>
+      <c r="G1" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="124"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="117" t="s">
+      <c r="E2" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117" t="s">
+      <c r="F2" s="76"/>
+      <c r="G2" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="120"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="116"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="125" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="126"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="126"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="116"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="116"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="126"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="116"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="126"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="116"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="126"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="116"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="126"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="85"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117" t="s">
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117" t="s">
+      <c r="F10" s="76"/>
+      <c r="G10" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="120"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="116"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117" t="s">
+      <c r="F11" s="76"/>
+      <c r="G11" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="120"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="79"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="127" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="117" t="s">
+      <c r="E12" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117" t="s">
+      <c r="F12" s="76"/>
+      <c r="G12" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="120"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="A13" s="116"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="120"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="116" t="s">
+      <c r="A14" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="117" t="s">
+      <c r="E14" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117" t="s">
+      <c r="F14" s="76"/>
+      <c r="G14" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="120"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="118"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="119" t="s">
+      <c r="E15" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119" t="s">
+      <c r="F15" s="78"/>
+      <c r="G15" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="121"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="80"/>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" thickTop="1">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="69" t="s">
+      <c r="B16" s="113"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="105"/>
-      <c r="F16" s="69" t="s">
+      <c r="E16" s="121"/>
+      <c r="F16" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="105"/>
+      <c r="G16" s="121"/>
       <c r="H16" s="4" t="s">
         <v>7</v>
       </c>
@@ -8045,93 +8045,93 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1">
-      <c r="A17" s="98"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="70" t="s">
+      <c r="A17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="74">
+      <c r="E17" s="101"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="43">
         <v>45631</v>
       </c>
-      <c r="I17" s="63" t="s">
+      <c r="I17" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="66"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1">
-      <c r="A18" s="98"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="94"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="110"/>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A19" s="100"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="95"/>
+      <c r="A19" s="117"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="111"/>
     </row>
     <row r="20" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="38" t="s">
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="108"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="122"/>
     </row>
     <row r="21" spans="1:10" ht="21" customHeight="1">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
-    </row>
-    <row r="22" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A22" s="111" t="e" vm="1">
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
+    </row>
+    <row r="22" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A22" s="95" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113"/>
-    </row>
-    <row r="23" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A23" s="51"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="97"/>
+    </row>
+    <row r="23" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A23" s="60"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
@@ -8140,10 +8140,10 @@
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
-      <c r="J23" s="114"/>
-    </row>
-    <row r="24" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A24" s="51"/>
+      <c r="J23" s="98"/>
+    </row>
+    <row r="24" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A24" s="60"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -8152,10 +8152,10 @@
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
-      <c r="J24" s="114"/>
-    </row>
-    <row r="25" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A25" s="51"/>
+      <c r="J24" s="98"/>
+    </row>
+    <row r="25" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A25" s="60"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -8164,10 +8164,10 @@
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
-      <c r="J25" s="114"/>
-    </row>
-    <row r="26" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A26" s="51"/>
+      <c r="J25" s="98"/>
+    </row>
+    <row r="26" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A26" s="60"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
@@ -8176,10 +8176,10 @@
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
-      <c r="J26" s="114"/>
-    </row>
-    <row r="27" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A27" s="51"/>
+      <c r="J26" s="98"/>
+    </row>
+    <row r="27" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A27" s="60"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -8188,10 +8188,10 @@
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
-      <c r="J27" s="114"/>
-    </row>
-    <row r="28" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A28" s="51"/>
+      <c r="J27" s="98"/>
+    </row>
+    <row r="28" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A28" s="60"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -8200,10 +8200,10 @@
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
-      <c r="J28" s="114"/>
+      <c r="J28" s="98"/>
     </row>
     <row r="29" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="93" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="27"/>
@@ -8214,15 +8214,15 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="42"/>
+      <c r="J29" s="53"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="93" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="52" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="27"/>
@@ -8237,7 +8237,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="93" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="27"/>
@@ -8254,14 +8254,14 @@
       <c r="G31" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="115" t="s">
+      <c r="H31" s="94" t="s">
         <v>19</v>
       </c>
       <c r="I31" s="27"/>
-      <c r="J31" s="42"/>
+      <c r="J31" s="53"/>
     </row>
     <row r="32" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="87" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="27"/>
@@ -8274,14 +8274,14 @@
         <v>50</v>
       </c>
       <c r="G32" s="18"/>
-      <c r="H32" s="41" t="s">
+      <c r="H32" s="52" t="s">
         <v>56</v>
       </c>
       <c r="I32" s="27"/>
-      <c r="J32" s="42"/>
+      <c r="J32" s="53"/>
     </row>
     <row r="33" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="87" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="27"/>
@@ -8294,14 +8294,14 @@
         <v>51</v>
       </c>
       <c r="G33" s="18"/>
-      <c r="H33" s="41" t="s">
+      <c r="H33" s="52" t="s">
         <v>66</v>
       </c>
       <c r="I33" s="27"/>
-      <c r="J33" s="42"/>
+      <c r="J33" s="53"/>
     </row>
     <row r="34" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="87" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="27"/>
@@ -8314,14 +8314,14 @@
         <v>52</v>
       </c>
       <c r="G34" s="18"/>
-      <c r="H34" s="41" t="s">
+      <c r="H34" s="52" t="s">
         <v>64</v>
       </c>
       <c r="I34" s="27"/>
-      <c r="J34" s="42"/>
+      <c r="J34" s="53"/>
     </row>
     <row r="35" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A35" s="79" t="s">
+      <c r="A35" s="87" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="27"/>
@@ -8334,14 +8334,14 @@
         <v>53</v>
       </c>
       <c r="G35" s="18"/>
-      <c r="H35" s="41" t="s">
+      <c r="H35" s="52" t="s">
         <v>57</v>
       </c>
       <c r="I35" s="27"/>
-      <c r="J35" s="42"/>
+      <c r="J35" s="53"/>
     </row>
     <row r="36" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A36" s="79" t="s">
+      <c r="A36" s="87" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="27"/>
@@ -8354,14 +8354,14 @@
         <v>54</v>
       </c>
       <c r="G36" s="18"/>
-      <c r="H36" s="41" t="s">
+      <c r="H36" s="52" t="s">
         <v>65</v>
       </c>
       <c r="I36" s="27"/>
-      <c r="J36" s="42"/>
+      <c r="J36" s="53"/>
     </row>
     <row r="37" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A37" s="79" t="s">
+      <c r="A37" s="87" t="s">
         <v>49</v>
       </c>
       <c r="B37" s="27"/>
@@ -8374,18 +8374,18 @@
         <v>55</v>
       </c>
       <c r="G37" s="18"/>
-      <c r="H37" s="41" t="s">
+      <c r="H37" s="52" t="s">
         <v>58</v>
       </c>
       <c r="I37" s="27"/>
-      <c r="J37" s="42"/>
+      <c r="J37" s="53"/>
     </row>
     <row r="38" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A38" s="79" t="s">
+      <c r="A38" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="81"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="89"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21" t="s">
         <v>71</v>
@@ -8394,18 +8394,18 @@
       <c r="G38" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H38" s="41" t="s">
+      <c r="H38" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="I38" s="82"/>
-      <c r="J38" s="83"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="91"/>
     </row>
     <row r="39" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="89"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21" t="s">
         <v>71</v>
@@ -8414,18 +8414,18 @@
       <c r="G39" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H39" s="41" t="s">
+      <c r="H39" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I39" s="82"/>
-      <c r="J39" s="83"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="91"/>
     </row>
     <row r="40" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A40" s="79" t="s">
+      <c r="A40" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="89"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21" t="s">
         <v>72</v>
@@ -8434,44 +8434,44 @@
       <c r="G40" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="41" t="s">
+      <c r="H40" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="I40" s="82"/>
-      <c r="J40" s="83"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="91"/>
     </row>
     <row r="41" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A41" s="106"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="47"/>
+      <c r="A41" s="92"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="35" t="s">
+      <c r="H41" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="I41" s="36"/>
-      <c r="J41" s="37"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="69"/>
     </row>
     <row r="42" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A42" s="102" t="s">
+      <c r="A42" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="107" t="s">
+      <c r="B42" s="64"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="40"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="71"/>
     </row>
     <row r="43" spans="1:10" ht="21" customHeight="1">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="93" t="s">
         <v>23</v>
       </c>
       <c r="B43" s="27"/>
@@ -8482,24 +8482,24 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="42"/>
-    </row>
-    <row r="44" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A44" s="111" t="e" vm="2">
+      <c r="J43" s="53"/>
+    </row>
+    <row r="44" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A44" s="95" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="B44" s="112"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="112"/>
-      <c r="J44" s="113"/>
-    </row>
-    <row r="45" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A45" s="51"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="97"/>
+    </row>
+    <row r="45" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A45" s="60"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
@@ -8508,10 +8508,10 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
-      <c r="J45" s="114"/>
-    </row>
-    <row r="46" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A46" s="51"/>
+      <c r="J45" s="98"/>
+    </row>
+    <row r="46" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A46" s="60"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
@@ -8520,10 +8520,10 @@
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
-      <c r="J46" s="114"/>
-    </row>
-    <row r="47" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A47" s="51"/>
+      <c r="J46" s="98"/>
+    </row>
+    <row r="47" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A47" s="60"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
@@ -8532,10 +8532,10 @@
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
-      <c r="J47" s="114"/>
-    </row>
-    <row r="48" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A48" s="51"/>
+      <c r="J47" s="98"/>
+    </row>
+    <row r="48" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A48" s="60"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
@@ -8544,10 +8544,10 @@
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
-      <c r="J48" s="114"/>
-    </row>
-    <row r="49" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A49" s="51"/>
+      <c r="J48" s="98"/>
+    </row>
+    <row r="49" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A49" s="60"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
@@ -8556,10 +8556,10 @@
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
       <c r="I49" s="30"/>
-      <c r="J49" s="114"/>
-    </row>
-    <row r="50" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A50" s="51"/>
+      <c r="J49" s="98"/>
+    </row>
+    <row r="50" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A50" s="60"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="30"/>
@@ -8568,10 +8568,10 @@
       <c r="G50" s="30"/>
       <c r="H50" s="30"/>
       <c r="I50" s="30"/>
-      <c r="J50" s="114"/>
+      <c r="J50" s="98"/>
     </row>
     <row r="51" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A51" s="84" t="s">
+      <c r="A51" s="93" t="s">
         <v>24</v>
       </c>
       <c r="B51" s="27"/>
@@ -8582,15 +8582,15 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="42"/>
+      <c r="J51" s="53"/>
     </row>
     <row r="52" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A52" s="84" t="s">
+      <c r="A52" s="93" t="s">
         <v>25</v>
       </c>
       <c r="B52" s="27"/>
       <c r="C52" s="28"/>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="52" t="s">
         <v>76</v>
       </c>
       <c r="E52" s="27"/>
@@ -8605,7 +8605,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A53" s="84" t="s">
+      <c r="A53" s="93" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="27"/>
@@ -8622,14 +8622,14 @@
       <c r="G53" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H53" s="115" t="s">
+      <c r="H53" s="94" t="s">
         <v>19</v>
       </c>
       <c r="I53" s="27"/>
-      <c r="J53" s="42"/>
+      <c r="J53" s="53"/>
     </row>
     <row r="54" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A54" s="79" t="s">
+      <c r="A54" s="87" t="s">
         <v>69</v>
       </c>
       <c r="B54" s="27"/>
@@ -8642,138 +8642,138 @@
       <c r="G54" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H54" s="41" t="s">
+      <c r="H54" s="52" t="s">
         <v>80</v>
       </c>
       <c r="I54" s="27"/>
-      <c r="J54" s="42"/>
+      <c r="J54" s="53"/>
     </row>
     <row r="55" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A55" s="79"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="27"/>
       <c r="C55" s="28"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="18"/>
-      <c r="H55" s="41"/>
+      <c r="H55" s="52"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="42"/>
+      <c r="J55" s="53"/>
     </row>
     <row r="56" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A56" s="79"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="27"/>
       <c r="C56" s="28"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="18"/>
-      <c r="H56" s="41"/>
+      <c r="H56" s="52"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="42"/>
+      <c r="J56" s="53"/>
     </row>
     <row r="57" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A57" s="79"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="27"/>
       <c r="C57" s="28"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="G57" s="18"/>
-      <c r="H57" s="41"/>
+      <c r="H57" s="52"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="42"/>
+      <c r="J57" s="53"/>
     </row>
     <row r="58" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A58" s="79"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="27"/>
       <c r="C58" s="28"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
       <c r="G58" s="18"/>
-      <c r="H58" s="41"/>
+      <c r="H58" s="52"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="42"/>
+      <c r="J58" s="53"/>
     </row>
     <row r="59" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A59" s="79"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="27"/>
       <c r="C59" s="28"/>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="G59" s="18"/>
-      <c r="H59" s="41"/>
+      <c r="H59" s="52"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="42"/>
+      <c r="J59" s="53"/>
     </row>
     <row r="60" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A60" s="79"/>
-      <c r="B60" s="80"/>
-      <c r="C60" s="81"/>
+      <c r="A60" s="87"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="89"/>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
       <c r="F60" s="22"/>
       <c r="G60" s="21"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="83"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="91"/>
     </row>
     <row r="61" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A61" s="79"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="81"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="89"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="22"/>
       <c r="G61" s="21"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="82"/>
-      <c r="J61" s="83"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="91"/>
     </row>
     <row r="62" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A62" s="79"/>
-      <c r="B62" s="80"/>
-      <c r="C62" s="81"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="89"/>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
       <c r="F62" s="22"/>
       <c r="G62" s="21"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="82"/>
-      <c r="J62" s="83"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="91"/>
     </row>
     <row r="63" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A63" s="106"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="47"/>
+      <c r="A63" s="92"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="56"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="37"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="69"/>
     </row>
     <row r="64" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A64" s="102" t="s">
+      <c r="A64" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="39"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="107" t="s">
+      <c r="B64" s="64"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="40"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="71"/>
     </row>
     <row r="65" spans="1:10" ht="21" customHeight="1">
-      <c r="A65" s="84" t="s">
+      <c r="A65" s="93" t="s">
         <v>23</v>
       </c>
       <c r="B65" s="27"/>
@@ -8784,24 +8784,24 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="42"/>
-    </row>
-    <row r="66" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A66" s="111" t="e" vm="3">
+      <c r="J65" s="53"/>
+    </row>
+    <row r="66" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A66" s="95" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="B66" s="112"/>
-      <c r="C66" s="112"/>
-      <c r="D66" s="112"/>
-      <c r="E66" s="112"/>
-      <c r="F66" s="112"/>
-      <c r="G66" s="112"/>
-      <c r="H66" s="112"/>
-      <c r="I66" s="112"/>
-      <c r="J66" s="113"/>
-    </row>
-    <row r="67" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A67" s="51"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="96"/>
+      <c r="J66" s="97"/>
+    </row>
+    <row r="67" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A67" s="60"/>
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
@@ -8810,10 +8810,10 @@
       <c r="G67" s="30"/>
       <c r="H67" s="30"/>
       <c r="I67" s="30"/>
-      <c r="J67" s="114"/>
-    </row>
-    <row r="68" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A68" s="51"/>
+      <c r="J67" s="98"/>
+    </row>
+    <row r="68" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A68" s="60"/>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
@@ -8822,10 +8822,10 @@
       <c r="G68" s="30"/>
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
-      <c r="J68" s="114"/>
-    </row>
-    <row r="69" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A69" s="51"/>
+      <c r="J68" s="98"/>
+    </row>
+    <row r="69" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A69" s="60"/>
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
       <c r="D69" s="30"/>
@@ -8834,10 +8834,10 @@
       <c r="G69" s="30"/>
       <c r="H69" s="30"/>
       <c r="I69" s="30"/>
-      <c r="J69" s="114"/>
-    </row>
-    <row r="70" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A70" s="51"/>
+      <c r="J69" s="98"/>
+    </row>
+    <row r="70" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A70" s="60"/>
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
       <c r="D70" s="30"/>
@@ -8846,10 +8846,10 @@
       <c r="G70" s="30"/>
       <c r="H70" s="30"/>
       <c r="I70" s="30"/>
-      <c r="J70" s="114"/>
-    </row>
-    <row r="71" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A71" s="51"/>
+      <c r="J70" s="98"/>
+    </row>
+    <row r="71" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A71" s="60"/>
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
       <c r="D71" s="30"/>
@@ -8858,10 +8858,10 @@
       <c r="G71" s="30"/>
       <c r="H71" s="30"/>
       <c r="I71" s="30"/>
-      <c r="J71" s="114"/>
-    </row>
-    <row r="72" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A72" s="51"/>
+      <c r="J71" s="98"/>
+    </row>
+    <row r="72" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A72" s="60"/>
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
       <c r="D72" s="30"/>
@@ -8870,10 +8870,10 @@
       <c r="G72" s="30"/>
       <c r="H72" s="30"/>
       <c r="I72" s="30"/>
-      <c r="J72" s="114"/>
+      <c r="J72" s="98"/>
     </row>
     <row r="73" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A73" s="84" t="s">
+      <c r="A73" s="93" t="s">
         <v>24</v>
       </c>
       <c r="B73" s="27"/>
@@ -8884,15 +8884,15 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="42"/>
+      <c r="J73" s="53"/>
     </row>
     <row r="74" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A74" s="84" t="s">
+      <c r="A74" s="93" t="s">
         <v>25</v>
       </c>
       <c r="B74" s="27"/>
       <c r="C74" s="28"/>
-      <c r="D74" s="41" t="s">
+      <c r="D74" s="52" t="s">
         <v>77</v>
       </c>
       <c r="E74" s="27"/>
@@ -8907,7 +8907,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A75" s="84" t="s">
+      <c r="A75" s="93" t="s">
         <v>27</v>
       </c>
       <c r="B75" s="27"/>
@@ -8924,14 +8924,14 @@
       <c r="G75" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H75" s="115" t="s">
+      <c r="H75" s="94" t="s">
         <v>19</v>
       </c>
       <c r="I75" s="27"/>
-      <c r="J75" s="42"/>
+      <c r="J75" s="53"/>
     </row>
     <row r="76" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A76" s="79" t="s">
+      <c r="A76" s="87" t="s">
         <v>78</v>
       </c>
       <c r="B76" s="27"/>
@@ -8944,119 +8944,119 @@
       <c r="G76" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H76" s="41" t="s">
+      <c r="H76" s="52" t="s">
         <v>79</v>
       </c>
       <c r="I76" s="27"/>
-      <c r="J76" s="42"/>
+      <c r="J76" s="53"/>
     </row>
     <row r="77" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A77" s="79"/>
+      <c r="A77" s="87"/>
       <c r="B77" s="27"/>
       <c r="C77" s="28"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
       <c r="G77" s="18"/>
-      <c r="H77" s="41"/>
+      <c r="H77" s="52"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="42"/>
+      <c r="J77" s="53"/>
     </row>
     <row r="78" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A78" s="79"/>
+      <c r="A78" s="87"/>
       <c r="B78" s="27"/>
       <c r="C78" s="28"/>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="18"/>
-      <c r="H78" s="41"/>
+      <c r="H78" s="52"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="42"/>
+      <c r="J78" s="53"/>
     </row>
     <row r="79" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A79" s="79"/>
+      <c r="A79" s="87"/>
       <c r="B79" s="27"/>
       <c r="C79" s="28"/>
       <c r="D79" s="17"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="18"/>
-      <c r="H79" s="41"/>
+      <c r="H79" s="52"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="42"/>
+      <c r="J79" s="53"/>
     </row>
     <row r="80" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A80" s="79"/>
+      <c r="A80" s="87"/>
       <c r="B80" s="27"/>
       <c r="C80" s="28"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="18"/>
-      <c r="H80" s="41"/>
+      <c r="H80" s="52"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="42"/>
+      <c r="J80" s="53"/>
     </row>
     <row r="81" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A81" s="79"/>
+      <c r="A81" s="87"/>
       <c r="B81" s="27"/>
       <c r="C81" s="28"/>
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="18"/>
-      <c r="H81" s="41"/>
+      <c r="H81" s="52"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="42"/>
+      <c r="J81" s="53"/>
     </row>
     <row r="82" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A82" s="79"/>
-      <c r="B82" s="80"/>
-      <c r="C82" s="81"/>
+      <c r="A82" s="87"/>
+      <c r="B82" s="88"/>
+      <c r="C82" s="89"/>
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
       <c r="F82" s="22"/>
       <c r="G82" s="21"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="82"/>
-      <c r="J82" s="83"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="90"/>
+      <c r="J82" s="91"/>
     </row>
     <row r="83" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A83" s="79"/>
-      <c r="B83" s="80"/>
-      <c r="C83" s="81"/>
+      <c r="A83" s="87"/>
+      <c r="B83" s="88"/>
+      <c r="C83" s="89"/>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
       <c r="F83" s="22"/>
       <c r="G83" s="21"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="82"/>
-      <c r="J83" s="83"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="90"/>
+      <c r="J83" s="91"/>
     </row>
     <row r="84" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A84" s="79"/>
-      <c r="B84" s="80"/>
-      <c r="C84" s="81"/>
+      <c r="A84" s="87"/>
+      <c r="B84" s="88"/>
+      <c r="C84" s="89"/>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
       <c r="F84" s="22"/>
       <c r="G84" s="21"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="82"/>
-      <c r="J84" s="83"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="90"/>
+      <c r="J84" s="91"/>
     </row>
     <row r="85" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A85" s="106"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="47"/>
+      <c r="A85" s="92"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="56"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" s="20"/>
       <c r="G85" s="20"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="37"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="69"/>
     </row>
     <row r="86" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="87" spans="1:10" ht="12.75" customHeight="1"/>
@@ -9993,49 +9993,55 @@
     <row r="1018" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G12:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C11"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="F17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="A16:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="D17:E19"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H53:J53"/>
     <mergeCell ref="A65:J65"/>
     <mergeCell ref="A66:J72"/>
     <mergeCell ref="A73:J73"/>
@@ -10060,55 +10066,49 @@
     <mergeCell ref="H61:J61"/>
     <mergeCell ref="A56:C56"/>
     <mergeCell ref="H56:J56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="F17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="A16:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="D17:E19"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G12:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C11"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F13"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10120,32 +10120,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K1023"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="27" width="8.85546875" customWidth="1"/>
+    <col min="1" max="3" width="5.1796875" customWidth="1"/>
+    <col min="4" max="11" width="16.81640625" customWidth="1"/>
+    <col min="12" max="27" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="69" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="69" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="57"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
@@ -10157,49 +10157,49 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="51"/>
+      <c r="A2" s="60"/>
       <c r="B2" s="30"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="74">
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="43">
         <v>45631</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="66"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="51"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="67"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="68"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -10461,7 +10461,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" ht="12.6" customHeight="1">
+    <row r="25" spans="1:11" ht="12.65" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
